--- a/excel-data/Sneakers-data.xlsx
+++ b/excel-data/Sneakers-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.joe.haboc\Desktop\Polder\the_odin_project\shop-app\excel-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE259D9-52D8-48BF-A742-0390A8ABA148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E300ACF7-EFF4-49DF-B828-0DDB0EF907EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2617201D-6CC6-47DF-B8AD-9E26E53B1F66}"/>
   </bookViews>
@@ -48,9 +48,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
-    <t>Column1.price</t>
-  </si>
-  <si>
     <t>Adidas NMD</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Sneakers</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
     <tableColumn id="1" xr3:uid="{2B4D4A82-6246-49A8-B6FF-54AB4CC9213F}" uniqueName="1" name="title" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{CECA7BC3-A18C-415C-BD80-1D587590AA1E}" uniqueName="2" name="name" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D72D1C3F-95CA-401A-81F4-31172651F467}" uniqueName="3" name="imageUrl" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{6B6AA2E5-29E8-4D15-8A8C-AD8CE221182E}" uniqueName="4" name="Column1.price" queryTableFieldId="4"/>
+    <tableColumn id="4" xr3:uid="{6B6AA2E5-29E8-4D15-8A8C-AD8CE221182E}" uniqueName="4" name="price" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -489,7 +489,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,27 +502,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2">
         <v>220</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="D3">
         <v>280</v>
@@ -544,13 +544,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4">
         <v>110</v>
@@ -558,13 +558,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
       <c r="D5">
         <v>160</v>
@@ -572,13 +572,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
       <c r="D6">
         <v>160</v>
@@ -586,13 +586,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
       <c r="D7">
         <v>160</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
       <c r="D8">
         <v>190</v>
@@ -614,13 +614,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
       <c r="D9">
         <v>200</v>

--- a/excel-data/Sneakers-data.xlsx
+++ b/excel-data/Sneakers-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.joe.haboc\Desktop\Polder\the_odin_project\shop-app\excel-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E300ACF7-EFF4-49DF-B828-0DDB0EF907EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32ADB7E-C2BE-42A3-ABA0-B868A0D070A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2617201D-6CC6-47DF-B8AD-9E26E53B1F66}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'output (2)'!$A$1:$D$9</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'output (2)'!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Adidas NMD</t>
   </si>
@@ -109,16 +109,99 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/3987290/pexels-photo-3987290.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>White Converse All Star High Top Sneakers</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1102776/pexels-photo-1102776.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Adidas Yeezy Boost Shoes</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/7543638/pexels-photo-7543638.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Nike Air</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/6540973/pexels-photo-6540973.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>White and Red Nike Athletic Shoe</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/6050917/pexels-photo-6050917.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black White and Red Nike Air Max</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/6050929/pexels-photo-6050929.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Red and White Nike Athletic Shoes</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/6740090/pexels-photo-6740090.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black Rubber Shoes</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1407354/pexels-photo-1407354.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black and White Adidas Sneakers</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1476209/pexels-photo-1476209.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Brown Nike Sneakers</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/3490360/pexels-photo-3490360.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black White and Orange Nike Shoe</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/718981/pexels-photo-718981.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Brown Timberland Work Boots</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/3193204/pexels-photo-3193204.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Colorful Sneakers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,13 +224,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -165,10 +251,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{CB6BEA1C-4B6F-4734-A77E-79CC8C01D4F5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1._id" tableColumnId="1"/>
       <queryTableField id="2" name="Column1.name" tableColumnId="2"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="3" name="Column1.imageUrl" tableColumnId="3"/>
       <queryTableField id="4" name="Column1.price" tableColumnId="4"/>
     </queryTableFields>
@@ -177,11 +264,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D821430-703E-4006-A7A7-4C382F93C54B}" name="output__2" displayName="output__2" ref="A1:D9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D9" xr:uid="{2D821430-703E-4006-A7A7-4C382F93C54B}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D821430-703E-4006-A7A7-4C382F93C54B}" name="output__2" displayName="output__2" ref="A1:E21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E21" xr:uid="{2D821430-703E-4006-A7A7-4C382F93C54B}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2B4D4A82-6246-49A8-B6FF-54AB4CC9213F}" uniqueName="1" name="title" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{CECA7BC3-A18C-415C-BD80-1D587590AA1E}" uniqueName="2" name="name" queryTableFieldId="2"/>
+    <tableColumn id="5" xr3:uid="{786A3825-6095-4658-B264-C2A93A320BB8}" uniqueName="5" name="description" queryTableFieldId="5"/>
     <tableColumn id="3" xr3:uid="{D72D1C3F-95CA-401A-81F4-31172651F467}" uniqueName="3" name="imageUrl" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6B6AA2E5-29E8-4D15-8A8C-AD8CE221182E}" uniqueName="4" name="price" queryTableFieldId="4"/>
   </tableColumns>
@@ -486,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7973A94-578E-43CB-ACB6-4C2590350CC1}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,7 +588,7 @@
     <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -508,129 +596,303 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>200</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{FC523496-61EF-4BAD-81A4-5457CA14D575}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/excel-data/Sneakers-data.xlsx
+++ b/excel-data/Sneakers-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.joe.haboc\Desktop\Polder\the_odin_project\shop-app\excel-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32ADB7E-C2BE-42A3-ABA0-B868A0D070A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF5F603-A78C-4774-BC45-54AFE5F48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2617201D-6CC6-47DF-B8AD-9E26E53B1F66}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Adidas NMD</t>
   </si>
@@ -184,13 +184,73 @@
   </si>
   <si>
     <t>Colorful Sneakers</t>
+  </si>
+  <si>
+    <t>Adidas NMD is the latest shoe designed by adidas. It is a lightweight, minimalist shoe featuring a sock-like upper and a 3-Stripes branding.</t>
+  </si>
+  <si>
+    <t>Adidas Yeezy is the first collection from Adidas Originals and Kanye West.</t>
+  </si>
+  <si>
+    <t>Black Converse are the most comfortable and stylish sneakers ever. You can get them in various styles, colours and materials. Check out our collection of Black Converse on sale and save big!</t>
+  </si>
+  <si>
+    <t>White AirForce Nike is a classic upper that mixes premium performance with a classic, clean look.</t>
+  </si>
+  <si>
+    <t>Nike's Red High Tops are designed to be comfortable, with the quality and style you expect from the world's leading athletic brand.</t>
+  </si>
+  <si>
+    <t>Nike Brown High Tops is a classic high top sneaker for casual wear.</t>
+  </si>
+  <si>
+    <t>Air Jordan  Limited is the latest collection from the iconic brand that captured the hearts of kids around the world.</t>
+  </si>
+  <si>
+    <t>Timberland shoes are a favorite. The brand has been around for more than 100 years. They are durable and comfortable.</t>
+  </si>
+  <si>
+    <t>White Converse All Star High Top Sneakers are a must have item.</t>
+  </si>
+  <si>
+    <t>Adidas Yeezy Boost Shoes is a new series of the Yeezy Boost that comes from the fashion company adidas. This series is inspired by the latest Yeezy collection.</t>
+  </si>
+  <si>
+    <t>Nike's Air system has been a true game changer. A new generation of runners will be experimenting with the Nike Air system. Here are our top picks for the best pairs.</t>
+  </si>
+  <si>
+    <t>Get the Nike White and Red Nike Athletic Shoe at a great price here.</t>
+  </si>
+  <si>
+    <t>This is a black white and red Nike Air Max for men and women.</t>
+  </si>
+  <si>
+    <t>Nike men's red and white sneakers in a variety of styles and colors.</t>
+  </si>
+  <si>
+    <t>Black rubber shoes save you time and money when you need to make an important presentation. Here, you'll learn how to make them at home.</t>
+  </si>
+  <si>
+    <t>The Adidas black and white sneakers are a must-have summer sneakers! With a trendsetting look and a sporty style, they are perfect for casual wear and can be worn with shorts and a t-shirt or denim.</t>
+  </si>
+  <si>
+    <t>It's the year of the sneaker in fashion. For spring, Nike's got a pair of new releases that are flying off the shelves. Like this brown pair.</t>
+  </si>
+  <si>
+    <t>Nike sneakers are in the majority, and they are pretty popular. This is a new black white and orange Nike Shoe,and it is a fashionable sneaker.</t>
+  </si>
+  <si>
+    <t>Timberland Brown Work Boots is one of the most popular workboots brands in the world and has been for decades.</t>
+  </si>
+  <si>
+    <t>This colorful sneaker looks great with jeans and a t-shirt. It's a fresh take on an old classic.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +265,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2937"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,9 +294,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7973A94-578E-43CB-ACB6-4C2590350CC1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,6 +679,9 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
@@ -626,6 +696,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -640,6 +713,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -654,6 +730,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -668,6 +747,9 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -682,6 +764,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -696,6 +781,9 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -710,6 +798,9 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -724,6 +815,9 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
@@ -738,6 +832,9 @@
       <c r="B11" t="s">
         <v>24</v>
       </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
@@ -752,6 +849,9 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
@@ -766,6 +866,9 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
@@ -780,6 +883,9 @@
       <c r="B14" t="s">
         <v>31</v>
       </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
@@ -794,6 +900,9 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
@@ -808,6 +917,9 @@
       <c r="B16" t="s">
         <v>35</v>
       </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
       <c r="D16" t="s">
         <v>34</v>
       </c>
@@ -822,6 +934,9 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
@@ -836,6 +951,9 @@
       <c r="B18" t="s">
         <v>39</v>
       </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
@@ -850,6 +968,9 @@
       <c r="B19" t="s">
         <v>41</v>
       </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
       <c r="D19" t="s">
         <v>40</v>
       </c>
@@ -864,6 +985,9 @@
       <c r="B20" t="s">
         <v>43</v>
       </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
       <c r="D20" t="s">
         <v>42</v>
       </c>
@@ -877,6 +1001,9 @@
       </c>
       <c r="B21" t="s">
         <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
